--- a/medicine/Psychotrope/Bière_en_Éthiopie/Bière_en_Éthiopie.xlsx
+++ b/medicine/Psychotrope/Bière_en_Éthiopie/Bière_en_Éthiopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_en_%C3%89thiopie</t>
+          <t>Bière_en_Éthiopie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Éthiopie, la bière  est la boisson alcoolisée la plus populaire et la plus consommée , la bière blonde y étant le type de bière le plus consommé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_en_%C3%89thiopie</t>
+          <t>Bière_en_Éthiopie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une bière traditionnelle, la tella, habituellement faite de grains de teff, d'orge ou plus rarement de maïs ou de sorgho, et parfumée avec des feuilles de gesho, sorte de houblon local, est brassée en Éthiopie.
 La première brasserie éthiopienne est fondée en 1922 et crée la St. George Beer, du nom du saint patron de l'Éthiopie. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_en_%C3%89thiopie</t>
+          <t>Bière_en_Éthiopie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Industrie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'industrie de la bière en Éthiopie a connu une croissance phénoménale depuis la fin du XXe siècle. Elle s'est transformée en l'une des industries les plus compétitives d'Éthiopie, avec des millions de birrs consacrés à la seule publicité. La compétitivité de cette industrie a conduit à plus d'investissements dans le secteur agricole, notamment dans la production de malt.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_en_%C3%89thiopie</t>
+          <t>Bière_en_Éthiopie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Top 15 des marques de bière en Éthiopie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste est établie par RateBeer.com en 2017[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste est établie par RateBeer.com en 2017.
 </t>
         </is>
       </c>
